--- a/new exel (1).xlsx
+++ b/new exel (1).xlsx
@@ -1,43 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwaoab01\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gui 1" sheetId="1" r:id="rId1"/>
     <sheet name="Gui 2" sheetId="2" r:id="rId2"/>
     <sheet name="Gui 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gui 1'!$A$6:$A$67</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
   <si>
     <t>#!/usr/bin/ksh</t>
   </si>
   <si>
+    <t>never changes</t>
+  </si>
+  <si>
     <t>#### UNIX ####</t>
   </si>
   <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>basebin</t>
+  </si>
+  <si>
+    <t>$base/bin</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>$basebin/process</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>$base/logs</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>$base/spray</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>$base/lookup</t>
+  </si>
+  <si>
+    <t>indata</t>
+  </si>
+  <si>
     <t>export base</t>
   </si>
   <si>
     <t>export basebin</t>
   </si>
   <si>
+    <t>export process</t>
+  </si>
+  <si>
     <t>export logs</t>
   </si>
   <si>
@@ -47,15 +86,42 @@
     <t>export lookup</t>
   </si>
   <si>
-    <t>export process</t>
-  </si>
-  <si>
     <t>export indata</t>
   </si>
   <si>
     <t>### LZ information</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>`head -1 /home/insdataops/DBAServer/logVIP.txt`</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>idbexport</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>`cat $base/passwords/lzpass.txt`</t>
+  </si>
+  <si>
+    <t>lzpath</t>
+  </si>
+  <si>
+    <t>/hpcc_export/" "</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
     <t>export source</t>
   </si>
   <si>
@@ -74,6 +140,27 @@
     <t>### Thor</t>
   </si>
   <si>
+    <t>prodesp</t>
+  </si>
+  <si>
+    <t>10.194.12.2:8011</t>
+  </si>
+  <si>
+    <t>Never changes</t>
+  </si>
+  <si>
+    <t>produser</t>
+  </si>
+  <si>
+    <t>prodpass</t>
+  </si>
+  <si>
+    <t>prodcluster</t>
+  </si>
+  <si>
+    <t>prodqueue</t>
+  </si>
+  <si>
     <t>export prodesp</t>
   </si>
   <si>
@@ -92,6 +179,18 @@
     <t>### email</t>
   </si>
   <si>
+    <t>Rows 55 - 70 - Never change.</t>
+  </si>
+  <si>
+    <t>emailus</t>
+  </si>
+  <si>
+    <t>kaycee@yahoo.com</t>
+  </si>
+  <si>
+    <t>emailall</t>
+  </si>
+  <si>
     <t>export emailus</t>
   </si>
   <si>
@@ -110,127 +209,28 @@
     <t>then</t>
   </si>
   <si>
+    <t xml:space="preserve">        curr_date = "$1"</t>
+  </si>
+  <si>
     <t>fi</t>
   </si>
   <si>
     <t>export curr_date</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>basebin</t>
-  </si>
-  <si>
-    <t>$base/bin</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>$basebin/process</t>
-  </si>
-  <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t>$base/logs</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>$base/spray</t>
-  </si>
-  <si>
-    <t>lookup</t>
-  </si>
-  <si>
-    <t>$base/lookup</t>
-  </si>
-  <si>
-    <t>indata</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>`head -1 /home/insdataops/DBAServer/logVIP.txt`</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>idbexport</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>`cat $base/passwords/lzpass.txt`</t>
-  </si>
-  <si>
-    <t>lzpath</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>10.194.12.2:8011</t>
-  </si>
-  <si>
-    <t>prodesp</t>
-  </si>
-  <si>
-    <t>produser</t>
-  </si>
-  <si>
-    <t>prodpass</t>
-  </si>
-  <si>
-    <t>prodcluster</t>
-  </si>
-  <si>
-    <t>prodqueue</t>
-  </si>
-  <si>
-    <t>emailus</t>
-  </si>
-  <si>
-    <t>emailall</t>
+    <t>paramfile.ksh</t>
   </si>
   <si>
     <t>/home/insdataops/" "</t>
   </si>
   <si>
-    <t>/hpcc_export/" "</t>
-  </si>
-  <si>
-    <t>" "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        curr_date = "$1"</t>
-  </si>
-  <si>
-    <t>paramfile.ksh</t>
-  </si>
-  <si>
-    <t>never changes</t>
-  </si>
-  <si>
-    <t>Never changes</t>
+    <t>sdsd</t>
   </si>
   <si>
     <t>Rows 43 - 55 - Never change.</t>
   </si>
   <si>
-    <t>Rows 55 - 70 - Never change.</t>
-  </si>
-  <si>
     <t>Rows 41 - 56 - Never change.</t>
-  </si>
-  <si>
-    <t>kaycee@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -287,34 +287,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,536 +597,536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="3"/>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1145,12 +1135,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1"/>
-    <hyperlink ref="B56" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1158,425 +1149,425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="3"/>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1585,11 +1576,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1"/>
-    <hyperlink ref="B44" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1601,421 +1593,421 @@
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="3"/>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2024,10 +2016,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1"/>
-    <hyperlink ref="B42" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>